--- a/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Age at exposure measure</t>
+          <t>Age at exposure measure [years]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Physical activity from questionnaire data</t>
+          <t>Physical activity from questionnaire data [MET-hr/day]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>MET-min/Wo</t>
+          <t>MET-min/week</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -705,22 +705,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>__BLANK__</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>paste</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>impossible</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Mean Activity energy expenditure (AEE) assessed by Actiheart</t>
+          <t>unavailable</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>impossible</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>unavailable</t>
         </is>
       </c>
     </row>

--- a/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
@@ -705,32 +705,32 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>__BLANK__</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>paste</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>non-smokers as inclusion criterion, but we cannot be sure, if they are real never smokers or former smokers</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>proximate</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>in this case, this combined group only consists of potatoes and no other tubers</t>
+          <t>does not contain other tubers than potatoes</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gem02_1</t>
+          <t>Gem02_1_NCI</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gem02_2</t>
+          <t>Gem02_2_NCI</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gem02_Hu</t>
+          <t>Gem02_Hu_NCI</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1615,7 +1615,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Obst_sum</t>
+          <t>Obst_sum_NCI</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nusa_sum</t>
+          <t>Nusa_sum_NCI</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Milc_sum</t>
+          <t>Milc_sum_NCI</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1915,22 +1915,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Milc07_1</t>
+          <t>milk_NCI</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>tba</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Would it be possible to calculate % of milk intake from the group Milc07_1? </t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1970,32 +1965,27 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>milkbased_bev_NCI</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>impossible</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Zu geringe Anzahl an Konsumenten für Berechnung via NCI-Methode (Recall1: n=2; Recall2: n=3) </t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>impossible</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>unavailable</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -2075,22 +2065,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Milc07_2</t>
+          <t>quark_curd_NCI</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>tba</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Would it be possible to calculate % of cheese curd, quark and cottage intake from the group Milc07_2?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2130,22 +2115,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Milc07_2</t>
+          <t>cheeses_NCI</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>tba</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Would it be possible to calculate % of cheese intake from the group Milc07_2?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2185,7 +2165,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Sues13_6</t>
+          <t>Sues13_6_NCI</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2435,7 +2415,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Brot_sum</t>
+          <t>Brot_sum_NCI</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2585,7 +2565,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Brot01_1</t>
+          <t>Brot01_1_NCI</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2885,7 +2865,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Flei_sum</t>
+          <t>Flei_sum_NCI</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3685,7 +3665,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Flei_Wurst</t>
+          <t>Flei_Wurst_NCI</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3785,7 +3765,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Fish_sum</t>
+          <t>Fish_sum_NCI</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4085,7 +4065,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Fett_sum</t>
+          <t>Fett_sum_NCI</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4435,7 +4415,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sues_sum</t>
+          <t>Sues_sum_NCI</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4535,27 +4515,27 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sues13_1</t>
+          <t>chocolate_sweets_NCI</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.5 * Sues13_1</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -4585,27 +4565,27 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sues13_1</t>
+          <t>nonchoc_sweets_NCI</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.5 * Sues13_1</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -4685,7 +4665,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sues13_2</t>
+          <t>Sues13_2_NCI</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5035,7 +5015,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Getr15_1</t>
+          <t>Getr15_1_NCI</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -5085,7 +5065,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Getr15_14</t>
+          <t>Getr15_14_NCI</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5135,7 +5115,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Getr15_16</t>
+          <t>Getr15_16_NCI</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -5185,7 +5165,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Getr15_12;Getr15_13</t>
+          <t>Kaffee_NCI;blackgreentea_NCI;Getr15_13_NCI</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -5195,7 +5175,7 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Getr15_12 + Getr15_13</t>
+          <t>Kaffee_NCI+blackgreentea_NCI+Getr15_13_NCI</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5235,32 +5215,27 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Getr15_12</t>
+          <t>Kaffee_NCI</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.5 * Getr15_12</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Do you know the proportion of coffee drinkers? Does 50% make sense?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -5290,32 +5265,27 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Getr15_12</t>
+          <t>blackgreentea_NCI</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.5 * Getr15_12</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Do you know the proportion of tea drinkers? Does 50% make sense?</t>
+          <t>direct_mapping</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>complete</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>tentative</t>
+          <t>identical</t>
         </is>
       </c>
     </row>
@@ -5345,7 +5315,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Getr15_13</t>
+          <t>Getr15_13_NCI</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -5445,7 +5415,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Getr15_11</t>
+          <t>Getr15_11_NCI</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -5495,7 +5465,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Getr15_2</t>
+          <t>Getr15_2_NCI</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -5545,7 +5515,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Getr15_22</t>
+          <t>Getr15_22_NCI</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -5645,7 +5615,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Getr15_21</t>
+          <t>Getr15_21_NCI</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -5695,7 +5665,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Getr15_23</t>
+          <t>Getr15_23_MW</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -5708,14 +5678,19 @@
           <t>direct_mapping</t>
         </is>
       </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>calculated as mean of 2 24h-recalls</t>
+        </is>
+      </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>tentative</t>
         </is>
       </c>
     </row>
@@ -5845,7 +5820,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Getr15_24</t>
+          <t>Getr15_24_MW</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5858,14 +5833,19 @@
           <t>direct_mapping</t>
         </is>
       </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>calculated as mean of 2 24h-recalls</t>
+        </is>
+      </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>tentative</t>
         </is>
       </c>
     </row>
@@ -5895,7 +5875,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sose_sum</t>
+          <t>Sose_sum_NCI</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -6345,7 +6325,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Supp_sum</t>
+          <t>Supp_sum_NCI</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -6495,7 +6475,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Sonst_sum</t>
+          <t>Sonst_sum_NCI</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -6695,7 +6675,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Suessstoffe</t>
+          <t>Suessstoffe_MW</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -6708,14 +6688,19 @@
           <t>direct_mapping</t>
         </is>
       </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>calculated as mean of 2 24h-recalls</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>complete</t>
+          <t>partial</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>identical</t>
+          <t>tentative</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6845,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2 (24HDR)</t>
+          <t>2 (24HDR) NCI method</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
+++ b/rmonize/data_proc_elem/DPE_KARMEN_P1.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(IPAQ_MET_Total*60)/7</t>
+          <t>(IPAQ_MET_Total/60)/7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>compatible</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>proximate</t>
         </is>
       </c>
     </row>
